--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9270" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="table a proposal" sheetId="2" r:id="rId2"/>
     <sheet name="Get all proposals" sheetId="3" r:id="rId3"/>
+    <sheet name="judge proposal" sheetId="4" r:id="rId4"/>
+    <sheet name="publish notice" sheetId="5" r:id="rId5"/>
+    <sheet name="get notice" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>request</t>
   </si>
@@ -115,19 +118,144 @@
   </si>
   <si>
     <t xml:space="preserve">proposal,topic, </t>
+  </si>
+  <si>
+    <t>这里面是不是要实现类似HTML的语法</t>
+  </si>
+  <si>
+    <t>图片，附件上传到web 服务器，得到content的时候根据里面图片到web服务器下载。</t>
+  </si>
+  <si>
+    <t>类似</t>
+  </si>
+  <si>
+    <t>请物业去赶紧打扫干净</t>
+  </si>
+  <si>
+    <t>这里面有一个问题就是图片统一下载命名的问题？</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>今天楼道卫生有问题。&lt;PIC&gt;/download/**.jpeg&lt;/PIC&gt;</t>
+  </si>
+  <si>
+    <t>/usder_id/time/time_name.jpeg</t>
+  </si>
+  <si>
+    <t>类型有几种？</t>
+  </si>
+  <si>
+    <t>分开显示还是统一的按照timeline显示在客户端？</t>
+  </si>
+  <si>
+    <t>关系到数据结构的定义和数据下发的方法</t>
+  </si>
+  <si>
+    <t>登录之后发送这个取的第几页的显示内容</t>
+  </si>
+  <si>
+    <t>发起一个提议</t>
+  </si>
+  <si>
+    <t>这个设置全体还是指定用户看到，上次说是整个小区的？</t>
+  </si>
+  <si>
+    <t>demo先不做这个查看权限的功能？</t>
+  </si>
+  <si>
+    <t>回馈该提议同意或不同意</t>
+  </si>
+  <si>
+    <t>proposal_id</t>
+  </si>
+  <si>
+    <t>最好是抽象成为一个对象。</t>
+  </si>
+  <si>
+    <t>judge_result</t>
+  </si>
+  <si>
+    <t>table_proposal</t>
+  </si>
+  <si>
+    <t>get_proposals</t>
+  </si>
+  <si>
+    <t>judge_proposal</t>
+  </si>
+  <si>
+    <t>指定时间段结束 一旦有1人同意，则建立正式议题，参与议题者可以发布意见</t>
+  </si>
+  <si>
+    <t>这个我也打算放到这里面，用户跟新的时候我们再去判断这个时间和状态，来变更这个提议的状态</t>
+  </si>
+  <si>
+    <t>1.到时间，没有人同意，丢弃，这个是删除还是一个状态？</t>
+  </si>
+  <si>
+    <t>2。变成topic，再次投票</t>
+  </si>
+  <si>
+    <t>3。没有通过的话，进入历史结果列表。</t>
+  </si>
+  <si>
+    <t>我们也把他看作一个类型？</t>
+  </si>
+  <si>
+    <t>4. 通过变成执行。</t>
+  </si>
+  <si>
+    <t>5.执行可以改变状态，这个是谁来改变？权限问题？</t>
+  </si>
+  <si>
+    <t>6。发表字符串这个是附加内容？</t>
+  </si>
+  <si>
+    <t>更新后的提议或者议题</t>
+  </si>
+  <si>
+    <t>主要是状态和类型的变化</t>
+  </si>
+  <si>
+    <t>这个怎么显示？</t>
+  </si>
+  <si>
+    <t>定时去服务器更新看看有没有新的公告？</t>
+  </si>
+  <si>
+    <t>公告内容</t>
+  </si>
+  <si>
+    <t>public_notice</t>
+  </si>
+  <si>
+    <t>get_notice</t>
+  </si>
+  <si>
+    <t>物业注册</t>
+  </si>
+  <si>
+    <t>物业登录</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="&amp;apos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +278,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,19 +582,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +614,14 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -505,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -522,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -539,7 +675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -550,7 +686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -568,15 +704,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,15 +735,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>10001</v>
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -616,34 +755,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -653,21 +849,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="39.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,15 +883,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>10001</v>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -707,15 +903,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10001</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -736,15 +932,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -753,7 +949,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
@@ -762,6 +967,298 @@
       </c>
       <c r="K5" t="s">
         <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9270" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="table a proposal" sheetId="2" r:id="rId2"/>
-    <sheet name="Get all proposals" sheetId="3" r:id="rId3"/>
-    <sheet name="judge proposal" sheetId="4" r:id="rId4"/>
-    <sheet name="publish notice" sheetId="5" r:id="rId5"/>
-    <sheet name="get notice" sheetId="6" r:id="rId6"/>
+    <sheet name="业主登录" sheetId="1" r:id="rId1"/>
+    <sheet name="发布提议" sheetId="2" r:id="rId2"/>
+    <sheet name="得到所有提议列表" sheetId="3" r:id="rId3"/>
+    <sheet name="得到具体的提议" sheetId="7" r:id="rId4"/>
+    <sheet name="添加评论" sheetId="8" r:id="rId5"/>
+    <sheet name="judge proposal" sheetId="4" r:id="rId6"/>
+    <sheet name="发布公告" sheetId="5" r:id="rId7"/>
+    <sheet name="获得公告" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="105">
   <si>
     <t>request</t>
   </si>
@@ -219,25 +221,121 @@
     <t>主要是状态和类型的变化</t>
   </si>
   <si>
-    <t>这个怎么显示？</t>
-  </si>
-  <si>
     <t>定时去服务器更新看看有没有新的公告？</t>
   </si>
   <si>
-    <t>公告内容</t>
-  </si>
-  <si>
     <t>public_notice</t>
   </si>
   <si>
     <t>get_notice</t>
   </si>
   <si>
-    <t>物业注册</t>
-  </si>
-  <si>
     <t>物业登录</t>
+  </si>
+  <si>
+    <t>command_index</t>
+  </si>
+  <si>
+    <t>unsigned int</t>
+  </si>
+  <si>
+    <t>only client used</t>
+  </si>
+  <si>
+    <t>图片 ，音频 视频</t>
+  </si>
+  <si>
+    <t>这些附件的保存方法</t>
+  </si>
+  <si>
+    <t>下载对应的附件内容图片，声音，视频。</t>
+  </si>
+  <si>
+    <t>业主登录</t>
+  </si>
+  <si>
+    <t>获得决议列表</t>
+  </si>
+  <si>
+    <t>获得具体决议内容</t>
+  </si>
+  <si>
+    <t>获得提议列表</t>
+  </si>
+  <si>
+    <t>提议具体内容</t>
+  </si>
+  <si>
+    <t>get_proposal_content</t>
+  </si>
+  <si>
+    <t>提议号</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>提议</t>
+  </si>
+  <si>
+    <t>复议</t>
+  </si>
+  <si>
+    <t>会议</t>
+  </si>
+  <si>
+    <t>决议</t>
+  </si>
+  <si>
+    <t>公告的问题</t>
+  </si>
+  <si>
+    <t>这个公告有没有时间限制比如失效，还是一条替换一般？</t>
+  </si>
+  <si>
+    <t>多条滚动</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>复议/未复议</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>赞同/反对</t>
+  </si>
+  <si>
+    <t>进行中/已完成/为开始</t>
+  </si>
+  <si>
+    <t>复议的赞同数目</t>
+  </si>
+  <si>
+    <t>复议的反对数目</t>
+  </si>
+  <si>
+    <t>会议的赞同数目</t>
+  </si>
+  <si>
+    <t>会议的反对数目</t>
+  </si>
+  <si>
+    <t>我记的决议的状态是执行</t>
+  </si>
+  <si>
+    <t>评论用list 存储</t>
   </si>
 </sst>
 </file>
@@ -582,119 +680,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="b">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>123</v>
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>123</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -704,18 +962,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -746,90 +1005,86 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10001</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -837,9 +1092,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -849,21 +1152,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,8 +1190,11 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -903,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -922,17 +1233,11 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -942,14 +1247,8 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -959,78 +1258,88 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="9" spans="1:15">
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>63</v>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="J16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1039,6 +1348,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1133,17 +1623,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1174,90 +1776,53 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="E3" t="s">
-        <v>68</v>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
         <v>66</v>
       </c>
     </row>

--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -12,16 +12,18 @@
     <sheet name="得到所有提议列表" sheetId="3" r:id="rId3"/>
     <sheet name="得到具体的提议" sheetId="7" r:id="rId4"/>
     <sheet name="添加评论" sheetId="8" r:id="rId5"/>
-    <sheet name="judge proposal" sheetId="4" r:id="rId6"/>
-    <sheet name="发布公告" sheetId="5" r:id="rId7"/>
-    <sheet name="获得公告" sheetId="6" r:id="rId8"/>
+    <sheet name="删除评论" sheetId="9" r:id="rId6"/>
+    <sheet name="judge proposal" sheetId="4" r:id="rId7"/>
+    <sheet name="发布公告" sheetId="5" r:id="rId8"/>
+    <sheet name="获得公告" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="115">
   <si>
     <t>request</t>
   </si>
@@ -107,15 +109,9 @@
     <t>取几个议题</t>
   </si>
   <si>
-    <t>proposals</t>
-  </si>
-  <si>
     <t>object</t>
   </si>
   <si>
-    <t>proposal list</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -336,13 +332,49 @@
   </si>
   <si>
     <t>评论用list 存储</t>
+  </si>
+  <si>
+    <t>赞同的用户ID</t>
+  </si>
+  <si>
+    <t>集合</t>
+  </si>
+  <si>
+    <t>反对的用户ID</t>
+  </si>
+  <si>
+    <t>这样能有顺序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除的时候用 </t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>proposal_title_list</t>
+  </si>
+  <si>
+    <t>'{"proposal_list":[{"state":"0","id":"9","title":"test"},{"state":"0","id":"10","title":"test"}],"command":"get_proposal_list","result":true,"command_index":1}'</t>
+  </si>
+  <si>
+    <t>proposal</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>comment_list</t>
+  </si>
+  <si>
+    <t>comment_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +386,13 @@
       <sz val="15"/>
       <color rgb="FF333333"/>
       <name val="&amp;apos"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,9 +415,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,10 +738,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -782,40 +822,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
       <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
       <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
         <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -933,29 +973,41 @@
     </row>
     <row r="11" spans="1:13">
       <c r="H11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="H13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -965,7 +1017,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1011,27 +1063,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1086,15 +1138,15 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1102,47 +1154,47 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
         <v>38</v>
-      </c>
-      <c r="I20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1154,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1163,8 +1215,8 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
@@ -1191,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1202,82 +1254,121 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>10001</v>
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="J10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1285,19 +1376,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="J12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
         <v>95</v>
       </c>
-      <c r="L12" t="s">
-        <v>97</v>
-      </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1305,54 +1396,55 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" t="s">
         <v>86</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>87</v>
-      </c>
-      <c r="M13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="J14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="J15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="J16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1362,99 +1454,139 @@
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -1479,28 +1611,28 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="E30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1510,17 +1642,135 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>104</v>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1530,10 +1780,119 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1570,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1590,15 +1949,15 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1606,7 +1965,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1614,7 +1973,23 @@
     </row>
     <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1666,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1680,22 +2055,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1720,13 +2095,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +2109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1776,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1790,22 +2165,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1823,7 +2198,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9270" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9270" tabRatio="721" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="业主登录" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,18 @@
     <sheet name="得到所有提议列表" sheetId="3" r:id="rId3"/>
     <sheet name="得到具体的提议" sheetId="7" r:id="rId4"/>
     <sheet name="添加评论" sheetId="8" r:id="rId5"/>
-    <sheet name="删除评论" sheetId="9" r:id="rId6"/>
-    <sheet name="judge proposal" sheetId="4" r:id="rId7"/>
-    <sheet name="发布公告" sheetId="5" r:id="rId8"/>
-    <sheet name="获得公告" sheetId="6" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="得到所有评论" sheetId="10" r:id="rId6"/>
+    <sheet name="删除评论" sheetId="9" r:id="rId7"/>
+    <sheet name="judge proposal" sheetId="4" r:id="rId8"/>
+    <sheet name="发布公告" sheetId="5" r:id="rId9"/>
+    <sheet name="获得公告" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="120">
   <si>
     <t>request</t>
   </si>
@@ -367,7 +367,22 @@
     <t>comment_list</t>
   </si>
   <si>
-    <t>comment_id</t>
+    <t>reply : '{"command":"add_comment","result":true,"comments":[{"comment":"comment comment","user_name":"name","time":"1422500663.9"},{"comment":"comment comment","user_name":"name","time":"1422500659.49"}],"command_index":1}'</t>
+  </si>
+  <si>
+    <t>comment_index</t>
+  </si>
+  <si>
+    <t>{"command": "del_comment",  "command_index": 1, "proposal_id": "9", "comment_index": 0}</t>
+  </si>
+  <si>
+    <t>{"command":"del_comment","result":true,"comments":[{"comment":"comment comment","user_name":"name","time":"1422502517.45"},</t>
+  </si>
+  <si>
+    <t>'{"command":"get_comments","result":true,"comments":[{"comment":"comment comment","user_name":"name","time":"1422503367.17"},{"comment":"comment comment","user_name":"name","time":"1422500663.9"}],"command_index":1}'</t>
+  </si>
+  <si>
+    <t>{"command": "get_comments",  "command_index": 1, "proposal_id": "9"}</t>
   </si>
 </sst>
 </file>
@@ -1002,12 +1017,97 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1644,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1748,10 +1848,15 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1771,6 +1876,120 @@
       </c>
       <c r="F14" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1778,12 +1997,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1870,7 +2089,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -1880,6 +2099,16 @@
       </c>
       <c r="E5" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +2116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1998,7 +2227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2107,101 +2336,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21075" windowHeight="9270" tabRatio="721" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19480" windowHeight="16020" tabRatio="721" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="业主登录" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,21 @@
     <sheet name="judge proposal" sheetId="4" r:id="rId8"/>
     <sheet name="发布公告" sheetId="5" r:id="rId9"/>
     <sheet name="获得公告" sheetId="6" r:id="rId10"/>
+    <sheet name="复议" sheetId="11" r:id="rId11"/>
+    <sheet name="得到所有复议列表" sheetId="12" r:id="rId12"/>
+    <sheet name="得到具体复议" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="132">
   <si>
     <t>request</t>
   </si>
@@ -175,12 +183,6 @@
     <t>judge_result</t>
   </si>
   <si>
-    <t>table_proposal</t>
-  </si>
-  <si>
-    <t>get_proposals</t>
-  </si>
-  <si>
     <t>judge_proposal</t>
   </si>
   <si>
@@ -383,13 +385,55 @@
   </si>
   <si>
     <t>{"command": "get_comments",  "command_index": 1, "proposal_id": "9"}</t>
+  </si>
+  <si>
+    <t>reconsider</t>
+  </si>
+  <si>
+    <t>sequence_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>agree_count</t>
+  </si>
+  <si>
+    <t>disagree_count</t>
+  </si>
+  <si>
+    <t>get_proposal_list</t>
+  </si>
+  <si>
+    <t>publish_proposal</t>
+  </si>
+  <si>
+    <t>add_comment</t>
+  </si>
+  <si>
+    <t>get_comments</t>
+  </si>
+  <si>
+    <t>del_comment</t>
+  </si>
+  <si>
+    <t>publish_reconsider</t>
+  </si>
+  <si>
+    <t>get_reconsider_list</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>reconsider_list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +453,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -427,15 +501,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,22 +857,22 @@
       <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -837,40 +953,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
       <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
       <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -988,30 +1104,35 @@
     </row>
     <row r="11" spans="1:13">
       <c r="H11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="H13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1020,12 +1141,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1057,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1070,23 +1191,23 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1104,11 +1225,389 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1116,14 +1615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1154,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1163,27 +1662,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1191,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>10001</v>
@@ -1216,6 +1715,12 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1286,19 +1791,25 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1307,20 +1818,20 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1343,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1354,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1363,30 +1874,30 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1420,10 +1931,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1442,7 +1953,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1452,23 +1963,23 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="J10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1476,19 +1987,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="J12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" t="s">
         <v>93</v>
       </c>
-      <c r="L12" t="s">
-        <v>95</v>
-      </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1496,46 +2007,51 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s">
         <v>84</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>85</v>
-      </c>
-      <c r="M13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="J14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="J15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="J16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1544,14 +2060,14 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1582,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1591,27 +2107,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1619,7 +2135,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1633,7 +2149,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1641,47 +2157,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75">
+    <row r="18" spans="1:10" ht="20">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1732,11 +2248,17 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1745,14 +2267,14 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1783,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1792,27 +2314,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1820,7 +2342,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1834,16 +2356,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1856,23 +2378,23 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1880,7 +2402,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1888,11 +2415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -1925,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1934,27 +2461,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1962,7 +2489,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1976,24 +2503,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2002,12 +2534,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2038,7 +2570,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2047,27 +2579,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2075,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2089,30 +2621,35 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2124,10 +2661,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2158,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2178,10 +2715,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2200,30 +2737,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75">
+    <row r="9" spans="1:7" ht="20">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2232,13 +2774,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2270,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2283,23 +2825,23 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2324,16 +2866,21 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19480" windowHeight="16020" tabRatio="721" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="15090" tabRatio="940" firstSheet="6" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="业主登录" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,18 @@
     <sheet name="添加评论" sheetId="8" r:id="rId5"/>
     <sheet name="得到所有评论" sheetId="10" r:id="rId6"/>
     <sheet name="删除评论" sheetId="9" r:id="rId7"/>
-    <sheet name="judge proposal" sheetId="4" r:id="rId8"/>
+    <sheet name="判断复议" sheetId="4" r:id="rId8"/>
     <sheet name="发布公告" sheetId="5" r:id="rId9"/>
     <sheet name="获得公告" sheetId="6" r:id="rId10"/>
     <sheet name="复议" sheetId="11" r:id="rId11"/>
     <sheet name="得到所有复议列表" sheetId="12" r:id="rId12"/>
     <sheet name="得到具体复议" sheetId="13" r:id="rId13"/>
+    <sheet name="评价物业公司" sheetId="14" r:id="rId14"/>
+    <sheet name="获得物业公司信息" sheetId="15" r:id="rId15"/>
+    <sheet name="获得会议列表" sheetId="16" r:id="rId16"/>
+    <sheet name="会议讨论" sheetId="17" r:id="rId17"/>
+    <sheet name="会议人员列表" sheetId="18" r:id="rId18"/>
+    <sheet name="会议投票" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="157">
   <si>
     <t>request</t>
   </si>
@@ -183,9 +189,6 @@
     <t>judge_result</t>
   </si>
   <si>
-    <t>judge_proposal</t>
-  </si>
-  <si>
     <t>指定时间段结束 一旦有1人同意，则建立正式议题，参与议题者可以发布意见</t>
   </si>
   <si>
@@ -213,12 +216,6 @@
     <t>6。发表字符串这个是附加内容？</t>
   </si>
   <si>
-    <t>更新后的提议或者议题</t>
-  </si>
-  <si>
-    <t>主要是状态和类型的变化</t>
-  </si>
-  <si>
     <t>定时去服务器更新看看有没有新的公告？</t>
   </si>
   <si>
@@ -427,13 +424,97 @@
   </si>
   <si>
     <t>reconsider_list</t>
+  </si>
+  <si>
+    <t>is_end</t>
+  </si>
+  <si>
+    <t>judge_reconsider</t>
+  </si>
+  <si>
+    <t>考虑一个用户只能赞同或者反对一次</t>
+  </si>
+  <si>
+    <t>reconsider_title_list</t>
+  </si>
+  <si>
+    <t>ReconsiderTitle</t>
+  </si>
+  <si>
+    <t>直接评论物业公司？</t>
+  </si>
+  <si>
+    <t>property_company_id</t>
+  </si>
+  <si>
+    <t>评价物业公司，要不要获得物业公司的详细信息</t>
+  </si>
+  <si>
+    <t>物业公司名称自己指定？</t>
+  </si>
+  <si>
+    <t>讲用户名字，保存到一个set</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>要不要加入一个功能获得赞同和反对的名字列表这类的？</t>
+  </si>
+  <si>
+    <t>暂时没做，都是通过复议列表获得的。</t>
+  </si>
+  <si>
+    <t>get_meeting_list</t>
+  </si>
+  <si>
+    <t>meeting_list</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>类似评论</t>
+  </si>
+  <si>
+    <t>能参加讨论的只有之前参加复议表决的人</t>
+  </si>
+  <si>
+    <t>赞同 和反对</t>
+  </si>
+  <si>
+    <t>add_meeting_comment</t>
+  </si>
+  <si>
+    <t>问题这个讨论的呈现方式是不是类似评论？</t>
+  </si>
+  <si>
+    <t>meeting_id</t>
+  </si>
+  <si>
+    <t>get_meeting_user_list</t>
+  </si>
+  <si>
+    <t>user_list</t>
+  </si>
+  <si>
+    <t>agree_user_list</t>
+  </si>
+  <si>
+    <t>disagree_user_list</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +564,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,12 +611,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -854,25 +942,25 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -953,40 +1041,40 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1104,26 +1192,26 @@
     </row>
     <row r="11" spans="1:13">
       <c r="H11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="H13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1144,9 +1232,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1178,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1192,22 +1280,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1225,7 +1313,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1243,13 +1331,13 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H17"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1280,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1289,27 +1377,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1317,7 +1405,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1331,28 +1419,28 @@
     </row>
     <row r="5" spans="1:8">
       <c r="D5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="F10" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="G11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="G12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
@@ -1376,7 +1464,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="G15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1384,7 +1472,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="G16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1406,15 +1494,15 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1445,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1454,27 +1542,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1508,10 +1596,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1527,23 +1615,32 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -1567,7 +1664,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="D16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1575,7 +1672,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1583,7 +1680,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1594,14 +1691,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1611,18 +1714,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1653,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1662,27 +1765,145 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,7 +1911,487 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
       </c>
       <c r="C4">
         <v>10001</v>
@@ -1716,10 +2417,10 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1791,15 +2492,15 @@
     </row>
     <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1818,20 +2519,20 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1854,7 +2555,7 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1865,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1874,30 +2575,30 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1931,10 +2632,10 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1950,10 +2651,19 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1963,23 +2673,23 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="J10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -1987,19 +2697,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
         <v>90</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>91</v>
       </c>
-      <c r="L12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" t="s">
-        <v>94</v>
-      </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2007,41 +2717,41 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="J14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="J15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="J16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2063,11 +2773,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2098,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2107,27 +2817,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2135,7 +2845,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2149,7 +2859,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2157,47 +2867,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20">
+    <row r="18" spans="1:10" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2248,7 +2958,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2267,14 +2977,14 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2305,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2314,27 +3024,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2342,7 +3052,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2356,16 +3066,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2378,23 +3088,23 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -2419,7 +3129,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
@@ -2452,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2461,27 +3171,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2489,7 +3199,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2503,20 +3213,20 @@
     </row>
     <row r="5" spans="1:6">
       <c r="D5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2534,12 +3244,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2570,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2579,27 +3290,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2607,7 +3318,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2621,26 +3332,26 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2655,19 +3366,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +3400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2695,72 +3408,124 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2777,10 +3542,10 @@
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2812,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2826,22 +3591,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2866,13 +3631,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="15090" tabRatio="940" firstSheet="6" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19480" windowHeight="15100" tabRatio="968" firstSheet="4" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="业主登录" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="181">
   <si>
     <t>request</t>
   </si>
@@ -492,29 +492,101 @@
     <t>meeting_id</t>
   </si>
   <si>
-    <t>get_meeting_user_list</t>
-  </si>
-  <si>
     <t>user_list</t>
   </si>
   <si>
-    <t>agree_user_list</t>
-  </si>
-  <si>
-    <t>disagree_user_list</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> message6 = {"command": "publish_proposal",  "sequence_id": 1, "title": "test", "content": "test"}</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>message3 = {"command": "get_proposal_list",  "sequence_id": 1, "start":0, "count":10}</t>
+  </si>
+  <si>
+    <t>暂时没有启用</t>
+  </si>
+  <si>
+    <t>message7 = {"command": "add_comment",  "sequence_id": 7, "proposal_id": 17, "user_name":"name", "comment":"comment comment"}</t>
+  </si>
+  <si>
+    <t>message7 = {"command": "get_comments",  "sequence_id": 7, "proposal_id": 17}</t>
+  </si>
+  <si>
+    <t>message7 = {"command": "del_comment",  "sequence_id": 7, "proposal_id": 17, "comment_index": 1}</t>
+  </si>
+  <si>
+    <t>message9 = {"user_name": 'zhou', 'sequence_id': 14, 'reconsider_id': 20, 'command': 'judge_reconsider', 'judge_result': True}</t>
+  </si>
+  <si>
+    <t>message2 = {"command": "get_notices",  "sequence_id": 1}</t>
+  </si>
+  <si>
+    <t>message1 = {"command": "publish_notice",  "sequence_id": 1, "content": "test123"}</t>
+  </si>
+  <si>
+    <t>message4 = {"command": "publish_reconsider",  "sequence_id": 1, "proposal_id":20}</t>
+  </si>
+  <si>
+    <t>message5 = {"command": "get_reconsider_list", "sequence_id": 1, "start":11, "count":10}</t>
+  </si>
+  <si>
+    <t>get_meeting_people</t>
+  </si>
+  <si>
+    <t>message[13] = {"command": "get_meeting_list", "sequence_id": 1, "start":0, "count":10}</t>
+  </si>
+  <si>
+    <t>{'is_end': False, 'sequence_id': 1, 'command': 'get_meeting_list', 'result': True, 'meeting_list': [{'title': 'helloworld', 'agree_count': 0, 'state': 0, 'context': 'hello world', 'id': 10, 'disagree_count': 0}, {'title': '\xe6\xb5\x8b\xe8\xaf\x95', 'agree_count': 0, 'state': 0, 'context': '\xe8\xbf\x99\xe6\x98\xaf\xe4\xb8\xaa\xe6\xb5\x8b\xe8\xaf\x95\xe3\x80\x82', 'id': 11, 'disagree_count': 0}, {'title': '\xe6\xb5\x8b\xe8\xaf\x95', 'agree_count': 0, 'state': 0, 'context': '\xe8\xbf\x99\xe6\x98\xaf\xe4\xb8\xaa\xe6\xb5\x8b\xe8\xaf\x95\xe3\x80\x82\xe5\x93\x88\xe5\x93\x88', 'id': 12, 'disagree_count': 0}, {'title': 'tt', 'agree_count': 0, 'state': 0, 'context': 'tt', 'id': 14, 'disagree_count': 0}, {'title': 'hello', 'agree_count': 0, 'state': 0, 'context': 'tets', 'id': 15, 'disagree_count': 0}, {'title': 'tet', 'agree_count': 0, 'state': 0, 'context': 'ssss', 'id': 16, 'disagree_count': 0}, {'title': 'ttt', 'agree_count': 0, 'state': 0, 'context': 'sss', 'id': 18, 'disagree_count': 0}, {'title': 'test', 'agree_count': 0, 'state': 0, 'context': 'test', 'id': 20, 'disagree_count': 0}, {'title': 'fff', 'agree_count': 0, 'state': 0, 'context': 'fff', 'id': 21, 'disagree_count': 0}, {'title': 'ssfff', 'agree_count': 0, 'state': 0, 'context': 'gghhh', 'id': 22, 'disagree_count': 0}]}</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>{'sequence_id': 1, 'command': 'add_meeting_comment', 'result': True, 'comments': [{'comment': 'comment comment', 'user_name': 'name', 'time': '1427794872.65'}, {'comment': 'comment comment', 'user_name': 'name', 'time': '1426660264.87'}]}</t>
+  </si>
+  <si>
+    <t>{'command': 'get_meeting_people', 'sequence_id': 1, 'disagree_members': [], 'result': True, 'agree_members': []}</t>
+  </si>
+  <si>
+    <t>command: "add_meeting_comment", "sequence_id": 1, "meeting_id": 9, "user_name":"name", "comment":"comment comment"}</t>
+  </si>
+  <si>
+    <t>测试通过</t>
+  </si>
+  <si>
+    <t>{"command": "get_meeting_people", "sequence_id": 1, "meeting_id": 9}</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>disagree_members</t>
+  </si>
+  <si>
+    <t>agree_members</t>
+  </si>
+  <si>
+    <t>暂时没做</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +642,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -588,7 +666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -610,16 +688,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -630,6 +717,10 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -640,6 +731,10 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -945,14 +1040,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1226,15 +1321,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A22" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,6 +1410,28 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,16 +1445,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1476,6 +1593,19 @@
       </c>
       <c r="H16" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1491,18 +1621,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1670,7 +1800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="1:6">
       <c r="D17" t="s">
         <v>119</v>
       </c>
@@ -1678,9 +1808,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1691,18 +1838,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="C3:F3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
+    <row r="3" spans="3:6">
+      <c r="C3" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1722,10 +1872,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1806,6 +1956,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1813,11 +1968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
@@ -1826,24 +1981,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1956,13 +2116,13 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="b">
+      <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1981,10 +2141,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="E10" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1997,7 +2157,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="E12" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -2019,25 +2179,59 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2152,24 +2346,61 @@
         <v>149</v>
       </c>
     </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
@@ -2202,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2211,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2253,23 +2484,23 @@
     </row>
     <row r="5" spans="1:6">
       <c r="D5" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="E11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2279,7 +2510,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="F13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2287,43 +2518,194 @@
         <v>146</v>
       </c>
     </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:1">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>147</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A29" sqref="A29:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2466,7 +2848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2474,12 +2856,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="B18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -2490,7 +2872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="B22" t="s">
         <v>66</v>
       </c>
@@ -2498,10 +2880,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>78</v>
       </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,23 +2928,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2744,15 +3156,45 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="1:10">
       <c r="J17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="1:10">
       <c r="J18" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,17 +3209,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2867,7 +3309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75">
+    <row r="18" spans="1:10" ht="20">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2960,6 +3402,26 @@
       <c r="A32" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2974,17 +3436,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="B21" sqref="B21:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3109,6 +3571,28 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3123,15 +3607,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3229,8 +3714,25 @@
         <v>113</v>
       </c>
     </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3241,15 +3743,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="A3:G3"/>
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3352,6 +3854,22 @@
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3366,18 +3884,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3479,7 +3997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6" ht="20">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -3523,9 +4041,30 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3536,16 +4075,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3639,6 +4178,28 @@
       <c r="H9" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
